--- a/EzIAM_Monitoring_08212014_ver1.0.xlsx
+++ b/EzIAM_Monitoring_08212014_ver1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akhilesh\Akhilesh\Projects\EZIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhilesh\Desktop\NewGIT\akhileshtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>Infrastructure Monitoring</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Application Process / Service Monitoring</t>
+  </si>
+  <si>
+    <t>dshert</t>
   </si>
 </sst>
 </file>
@@ -383,15 +386,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,6 +397,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +744,7 @@
   <dimension ref="B3:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -761,44 +764,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -821,10 +824,10 @@
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -847,10 +850,10 @@
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -873,10 +876,10 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -899,10 +902,10 @@
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -922,13 +925,13 @@
       <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -948,13 +951,13 @@
       <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -968,13 +971,13 @@
       <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -985,13 +988,13 @@
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1002,13 +1005,13 @@
       <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="H13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1019,13 +1022,13 @@
       <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1036,13 +1039,13 @@
       <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="H15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1056,10 +1059,10 @@
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1070,13 +1073,13 @@
       <c r="G17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="H17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1087,13 +1090,13 @@
       <c r="G18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="H18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1104,13 +1107,13 @@
       <c r="G19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="10" t="s">
+      <c r="H19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1121,13 +1124,13 @@
       <c r="G20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="H20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1138,11 +1141,11 @@
       <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="H21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F22" s="4" t="s">
@@ -1151,7 +1154,7 @@
       <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1162,8 +1165,11 @@
       <c r="G23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>14</v>
+      <c r="H23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.2">
@@ -1173,7 +1179,7 @@
       <c r="G24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1184,7 +1190,7 @@
       <c r="G25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1195,7 +1201,7 @@
       <c r="G26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1228,7 +1234,7 @@
       <c r="G29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1239,7 +1245,7 @@
       <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1283,7 +1289,7 @@
       <c r="G34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="6" t="s">
         <v>14</v>
       </c>
     </row>
